--- a/ONCHO/Entomological survey Survey/Nigeria/2024/bauchi/nov 2024/ng_oncho_2411_5_hlc_bau.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/bauchi/nov 2024/ng_oncho_2411_5_hlc_bau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\bauchi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\bauchi\nov 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1842521-7CF1-4B5B-8F3E-89FA64BA85B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0757342-9091-4CC9-A903-B4389DDE7F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="227">
   <si>
     <t>type</t>
   </si>
@@ -98,15 +98,6 @@
     <t>Site Code</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>s_gps</t>
-  </si>
-  <si>
-    <t>Works best outside of buildings</t>
-  </si>
-  <si>
     <t>s_river</t>
   </si>
   <si>
@@ -320,15 +311,9 @@
     <t>othe_flies_caught</t>
   </si>
   <si>
-    <t>Collect the GPS</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>kj_2</t>
-  </si>
-  <si>
     <t>select_one state</t>
   </si>
   <si>
@@ -353,12 +338,6 @@
     <t>lga</t>
   </si>
   <si>
-    <t>ng_oncho_2026_5_hlc_bau</t>
-  </si>
-  <si>
-    <t>(Bauchi) 5. Human Landing Catches</t>
-  </si>
-  <si>
     <t>BAUCHI</t>
   </si>
   <si>
@@ -618,13 +597,130 @@
   </si>
   <si>
     <t>BAU_SHI_M_036</t>
+  </si>
+  <si>
+    <t>ITAS/GADAU</t>
+  </si>
+  <si>
+    <t>JAMA ARE</t>
+  </si>
+  <si>
+    <t>KATAGUM</t>
+  </si>
+  <si>
+    <t>KAFIN MADAKI</t>
+  </si>
+  <si>
+    <t>SABON GARIN YAMRAT</t>
+  </si>
+  <si>
+    <t>BAKIN KANAKA</t>
+  </si>
+  <si>
+    <t>WAILO</t>
+  </si>
+  <si>
+    <t>ZUBUKI</t>
+  </si>
+  <si>
+    <t>GONGO</t>
+  </si>
+  <si>
+    <t>YAYU</t>
+  </si>
+  <si>
+    <t>GAKA</t>
+  </si>
+  <si>
+    <t>KAWARI</t>
+  </si>
+  <si>
+    <t>BAKIN KOGI</t>
+  </si>
+  <si>
+    <t>BAUSHE ILA</t>
+  </si>
+  <si>
+    <t>BAU_ALK_G_037</t>
+  </si>
+  <si>
+    <t>BAU_TOR_G_038</t>
+  </si>
+  <si>
+    <t>BAU_KIR_E_039</t>
+  </si>
+  <si>
+    <t>BAU_TOR_G_040</t>
+  </si>
+  <si>
+    <t>BAU_BAU_G_041</t>
+  </si>
+  <si>
+    <t>BAU_GAN_G_042</t>
+  </si>
+  <si>
+    <t>BAU_GAN_G_043</t>
+  </si>
+  <si>
+    <t>BAU_NIN_G_044</t>
+  </si>
+  <si>
+    <t>BAU_JAM_G_045</t>
+  </si>
+  <si>
+    <t>BAU_ITA_G_046</t>
+  </si>
+  <si>
+    <t>BAU_KAT_G_047</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>GPS Latitude</t>
+  </si>
+  <si>
+    <t>GPS Longitude</t>
+  </si>
+  <si>
+    <t>s_lat</t>
+  </si>
+  <si>
+    <t>s_long</t>
+  </si>
+  <si>
+    <t>Please enter the latitude in decimal format. If the latitude is south of the equator, include a negative sign ("-"). For example: -4.305638</t>
+  </si>
+  <si>
+    <t>Please enter the longitude in decimal format. If the longitude is west of the prime meridian, include a negative sign ("-"). For example: -74.005941</t>
+  </si>
+  <si>
+    <t>. &gt;= -90 and . &lt;= 90</t>
+  </si>
+  <si>
+    <t>Latitude must be between -90° and 90°.</t>
+  </si>
+  <si>
+    <t>. &gt;= -180 and . &lt;= 180</t>
+  </si>
+  <si>
+    <t>Longitude must be between -180° and 180°.</t>
+  </si>
+  <si>
+    <t>(Bauchi) 5. Human Landing Catches V2.2</t>
+  </si>
+  <si>
+    <t>ng_oncho_2411_5_hlc_bau_v2_2</t>
+  </si>
+  <si>
+    <t>kj_bau_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -676,8 +772,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,8 +800,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -714,11 +836,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -767,6 +919,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,13 +1213,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1118,13 +1282,13 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1">
       <c r="A2" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
@@ -1139,13 +1303,13 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
@@ -1158,7 +1322,7 @@
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1">
@@ -1182,18 +1346,18 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
@@ -1211,7 +1375,7 @@
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>19</v>
@@ -1230,67 +1394,76 @@
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="11" customFormat="1">
-      <c r="A7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="24" customFormat="1" ht="63">
+      <c r="A7" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="K7" s="22"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" s="24" customFormat="1" ht="63">
+      <c r="A8" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="18"/>
@@ -1302,40 +1475,45 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1">
       <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="13"/>
       <c r="K11" s="15"/>
@@ -1343,74 +1521,72 @@
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="J14" s="13"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
@@ -1423,15 +1599,15 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="31.5">
+    <row r="16" spans="1:13" s="11" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -1446,13 +1622,13 @@
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="31.5">
       <c r="A17" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -1465,15 +1641,15 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" s="11" customFormat="1">
+    <row r="18" spans="1:12" s="11" customFormat="1" ht="31.5">
       <c r="A18" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -1488,28 +1664,35 @@
     </row>
     <row r="19" spans="1:12" s="11" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" s="11" customFormat="1">
-      <c r="A20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="14"/>
+      <c r="A20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1520,11 +1703,8 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" s="11" customFormat="1">
-      <c r="A21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>46</v>
+      <c r="A21" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1538,10 +1718,10 @@
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1554,9 +1734,21 @@
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1">
-      <c r="B23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1">
       <c r="B24" s="19"/>
@@ -1564,23 +1756,28 @@
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1">
-      <c r="B25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1">
+      <c r="B26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD117"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1594,7 +1791,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1603,259 +1800,259 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="C26" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1864,1242 +2061,1593 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="C32" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" t="s">
-        <v>109</v>
-      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="E69" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="E73" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E80" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>124</v>
+        <v>141</v>
+      </c>
+      <c r="E82" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" t="s">
-        <v>125</v>
+        <v>142</v>
+      </c>
+      <c r="E83" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>126</v>
+        <v>143</v>
+      </c>
+      <c r="E84" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F85" t="s">
-        <v>128</v>
+        <v>144</v>
+      </c>
+      <c r="E85" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>129</v>
+        <v>200</v>
+      </c>
+      <c r="E86" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="F87" t="s">
-        <v>130</v>
+        <v>201</v>
+      </c>
+      <c r="E87" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F88" t="s">
-        <v>131</v>
+        <v>145</v>
+      </c>
+      <c r="E88" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="F89" t="s">
-        <v>132</v>
+        <v>146</v>
+      </c>
+      <c r="E89" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F90" t="s">
-        <v>113</v>
+        <v>147</v>
+      </c>
+      <c r="E90" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F91" t="s">
-        <v>133</v>
+        <v>148</v>
+      </c>
+      <c r="E91" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F92" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="E92" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="F93" t="s">
-        <v>136</v>
+        <v>150</v>
+      </c>
+      <c r="E93" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="21" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F94" t="s">
-        <v>138</v>
+        <v>151</v>
+      </c>
+      <c r="E94" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F95" t="s">
-        <v>139</v>
-      </c>
+      <c r="A95" s="21"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="F96" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F97" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F98" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F99" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F100" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F103" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F104" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F105" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F106" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F107" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F109" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F110" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F111" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F113" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F115" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F116" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B117" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" t="s">
+        <v>174</v>
+      </c>
+      <c r="F118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" t="s">
+        <v>175</v>
+      </c>
+      <c r="F119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+      <c r="F120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" t="s">
+        <v>177</v>
+      </c>
+      <c r="F121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122" t="s">
+        <v>178</v>
+      </c>
+      <c r="F122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" t="s">
+        <v>179</v>
+      </c>
+      <c r="F123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" t="s">
+        <v>180</v>
+      </c>
+      <c r="F124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" t="s">
+        <v>181</v>
+      </c>
+      <c r="F125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" t="s">
+        <v>182</v>
+      </c>
+      <c r="F126" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" t="s">
+        <v>183</v>
+      </c>
+      <c r="F127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" t="s">
+        <v>184</v>
+      </c>
+      <c r="F128" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" t="s">
+        <v>185</v>
+      </c>
+      <c r="F129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" t="s">
+        <v>186</v>
+      </c>
+      <c r="F130" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" t="s">
+        <v>187</v>
+      </c>
+      <c r="F131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>202</v>
+      </c>
+      <c r="C132" t="s">
+        <v>202</v>
+      </c>
+      <c r="F132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" t="s">
+        <v>203</v>
+      </c>
+      <c r="F133" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" t="s">
+        <v>204</v>
+      </c>
+      <c r="F134" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" t="s">
+        <v>205</v>
+      </c>
+      <c r="C135" t="s">
+        <v>205</v>
+      </c>
+      <c r="F135" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" t="s">
+        <v>206</v>
+      </c>
+      <c r="F136" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" t="s">
+        <v>207</v>
+      </c>
+      <c r="C137" t="s">
+        <v>207</v>
+      </c>
+      <c r="F137" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" t="s">
+        <v>208</v>
+      </c>
+      <c r="C138" t="s">
+        <v>208</v>
+      </c>
+      <c r="F138" t="s">
         <v>194</v>
       </c>
-      <c r="C117" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F117" t="s">
-        <v>149</v>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" t="s">
+        <v>209</v>
+      </c>
+      <c r="C139" t="s">
+        <v>209</v>
+      </c>
+      <c r="F139" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140" t="s">
+        <v>210</v>
+      </c>
+      <c r="C140" t="s">
+        <v>210</v>
+      </c>
+      <c r="F140" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" t="s">
+        <v>211</v>
+      </c>
+      <c r="C141" t="s">
+        <v>211</v>
+      </c>
+      <c r="F141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>83</v>
+      </c>
+      <c r="B142" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" t="s">
+        <v>212</v>
+      </c>
+      <c r="F142" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3113,7 +3661,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3124,24 +3672,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
